--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-compatible-with-import.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-compatible-with-import.xlsx
@@ -349,7 +349,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
